--- a/biology/Médecine/Jean-Alexis_Evrat/Jean-Alexis_Evrat.xlsx
+++ b/biology/Médecine/Jean-Alexis_Evrat/Jean-Alexis_Evrat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Alexis Evrat (17 janvier 1765, Dijon - 6 novembre 1835, Paris), est un médecin français, membre éminent de l'Académie nationale de médecine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fit sa carrière dans la médecine à Dijon puis à Paris. Elève de Guillaume Dupuytren, il reçoit la médaille d'or de l'Ecole de chirurgie en 1788. Il est chirurgien-major du bataillon des Prémontrés en 1790, médecin chef à l'hôpital militaire de Meaux en 1792 puis se spécialise en gynécologie. En 1811, il réside au 23 rue de Sèvres à Paris comme accoucheur.
 Devenu médecin de Charles X et de la duchesse d'Angoulême, il est nommé accoucheur de Marie-Caroline de Bourbon-Siciles, duchesse de Berry, et à ce titre est le médecin accoucheur en 1820 de Henri d'Artois, duc de Bordeaux et fils posthume du duc de Berry assassiné par Louvel.
@@ -544,7 +558,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'une famille de négociants de Dijon, il épouse Marguerite Elisabeth Eléonore Lerat, fille d'un bourgeois carrossier de Paris et petite-fille du maître charron d'artillerie d'Auxonne. De leur union, naîtront 2 filles : Virginie (1791-1834) qui épousera le médecin François-Joseph Moreau et Alexine (1797-1865) qui épousera le conseiller d’État Jacques-Simon Tournouër.
 Il achète en 1828 un grand domaine en Côte-d'Or à Losne - le château de La Borde, qui sera hérité par son petit-fils Jacques-Raoul Tournouër Il est également propriétaire d'une demeure à proximité de Paris à Bry-sur-Marne où se situent les sépultures familiales.
